--- a/doc/api_object_mapping.xlsx
+++ b/doc/api_object_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/il015650/git/niteknightt/Chess_LichessApi/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3088EC50-9ECC-3E48-B99E-2B36AAFA3A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C92A82-D33F-7D4C-8326-76934F81A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{B899351C-BC78-3D4F-90F4-2E8D4720C1B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
   <si>
     <t>Function</t>
   </si>
@@ -153,6 +153,111 @@
   </si>
   <si>
     <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>GetUserPublicData</t>
+  </si>
+  <si>
+    <t>GetUserRatingHistory</t>
+  </si>
+  <si>
+    <t>UserRatingHistory</t>
+  </si>
+  <si>
+    <t>GetUserPerfStats</t>
+  </si>
+  <si>
+    <t>UserPerfStats</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>GlickoDetails</t>
+  </si>
+  <si>
+    <t>VariantStats</t>
+  </si>
+  <si>
+    <t>GameWithOpponentRating</t>
+  </si>
+  <si>
+    <t>GameList</t>
+  </si>
+  <si>
+    <t>GameWithOpponentDetails</t>
+  </si>
+  <si>
+    <t>LightUserProfile</t>
+  </si>
+  <si>
+    <t>VariantCounts</t>
+  </si>
+  <si>
+    <t>Streak</t>
+  </si>
+  <si>
+    <t>DateAndGame</t>
+  </si>
+  <si>
+    <t>ResultsStreaks</t>
+  </si>
+  <si>
+    <t>PlayStreaks</t>
+  </si>
+  <si>
+    <t>CurAndMaxResultsStreaks</t>
+  </si>
+  <si>
+    <t>CurAndMaxPlayStreaks</t>
+  </si>
+  <si>
+    <t>CurrentPlayStreak</t>
+  </si>
+  <si>
+    <t>MaxPlayStreak</t>
+  </si>
+  <si>
+    <t>CurAndMaxPlayTime</t>
+  </si>
+  <si>
+    <t>CurrentPlayTime</t>
+  </si>
+  <si>
+    <t>MaxPlayTime</t>
+  </si>
+  <si>
+    <t>GetUserActivity</t>
+  </si>
+  <si>
+    <t>UserActivity</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>GamesActivity</t>
+  </si>
+  <si>
+    <t>VariantActivity</t>
+  </si>
+  <si>
+    <t>PuzzleActivity</t>
+  </si>
+  <si>
+    <t>RunsAndScore</t>
+  </si>
+  <si>
+    <t>TournamentActivity</t>
+  </si>
+  <si>
+    <t>TournamentInfo</t>
+  </si>
+  <si>
+    <t>UserTournamentResult</t>
   </si>
 </sst>
 </file>
@@ -524,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF84E7C-A5DE-CD42-94B5-714BC9D18F76}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,6 +903,521 @@
         <v>36</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
